--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业所有者权益.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业所有者权益.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1509 +623,1353 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>278.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>92.8</v>
+      </c>
       <c r="E2" t="n">
-        <v>1379.60737</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>2418.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.5</v>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>591</v>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1982.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>672.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2111.7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>637.8</v>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>240.7</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>448.8</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>288.3</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210.2</v>
+        <v>305.2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.3</v>
+        <v>-0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>107.4</v>
+        <v>89.2</v>
       </c>
       <c r="E3" t="n">
-        <v>2164.1</v>
+        <v>2675.8</v>
       </c>
       <c r="F3" t="n">
-        <v>8.6</v>
+        <v>64.8</v>
       </c>
       <c r="G3" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.7</v>
+      </c>
       <c r="I3" t="n">
-        <v>501.6</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>749.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.1</v>
+      </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1810</v>
+        <v>2198.6</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="N3" t="n">
-        <v>718.9</v>
+        <v>690.6</v>
       </c>
       <c r="O3" t="n">
-        <v>63.6</v>
+        <v>51.5</v>
       </c>
       <c r="P3" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>205</v>
+        <v>199.8</v>
       </c>
       <c r="R3" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="S3" t="n">
-        <v>77.7</v>
+        <v>105</v>
       </c>
       <c r="T3" t="n">
-        <v>1921.2</v>
+        <v>2340.2</v>
       </c>
       <c r="U3" t="n">
-        <v>565.1</v>
+        <v>801</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>18.8</v>
+        <v>30.6</v>
       </c>
       <c r="X3" t="n">
-        <v>57.3</v>
+        <v>136</v>
       </c>
       <c r="Y3" t="n">
-        <v>149.1</v>
+        <v>277.3</v>
       </c>
       <c r="Z3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>439.1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>298.6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="AK3" t="n">
         <v>2</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>342.7</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>205.8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.4</v>
       </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.5</v>
+        <v>326.92586</v>
       </c>
       <c r="C4" t="n">
-        <v>2.6</v>
+        <v>0.56567</v>
       </c>
       <c r="D4" t="n">
-        <v>77.59999999999999</v>
+        <v>90.75659</v>
       </c>
       <c r="E4" t="n">
-        <v>2127.3</v>
+        <v>2805.53717</v>
       </c>
       <c r="F4" t="n">
-        <v>19.3</v>
+        <v>65.48842</v>
       </c>
       <c r="G4" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>37.40245</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.80091</v>
+      </c>
       <c r="I4" t="n">
-        <v>516.5</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>789.4213</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.05503</v>
+      </c>
       <c r="K4" t="n">
-        <v>1.1</v>
+        <v>1.16282</v>
       </c>
       <c r="L4" t="n">
-        <v>1786.3</v>
+        <v>2314.27172</v>
       </c>
       <c r="M4" t="n">
-        <v>3.5</v>
+        <v>1.73364</v>
       </c>
       <c r="N4" t="n">
-        <v>661.1</v>
+        <v>745.63971</v>
       </c>
       <c r="O4" t="n">
-        <v>52.5</v>
+        <v>64.23381000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>7.8</v>
+        <v>8.359030000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>168.4</v>
+        <v>198.28931</v>
       </c>
       <c r="R4" t="n">
-        <v>4.2</v>
+        <v>-0.349</v>
       </c>
       <c r="S4" t="n">
-        <v>84</v>
+        <v>104.51514</v>
       </c>
       <c r="T4" t="n">
-        <v>1853.8</v>
+        <v>2441.20886</v>
       </c>
       <c r="U4" t="n">
-        <v>569</v>
+        <v>853.65511</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>30.84267</v>
       </c>
       <c r="X4" t="n">
-        <v>80</v>
+        <v>153.94732</v>
       </c>
       <c r="Y4" t="n">
-        <v>172.6</v>
+        <v>292.97614</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.5</v>
+        <v>9.972950000000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.09999999999999</v>
+        <v>97.15817</v>
       </c>
       <c r="AB4" t="n">
-        <v>357.5</v>
+        <v>450.53551</v>
       </c>
       <c r="AC4" t="n">
-        <v>21.7</v>
+        <v>19.82957</v>
       </c>
       <c r="AD4" t="n">
-        <v>221.1</v>
+        <v>306.82711</v>
       </c>
       <c r="AE4" t="n">
-        <v>94.2</v>
+        <v>90.82993999999999</v>
       </c>
       <c r="AF4" t="n">
-        <v>20.6</v>
+        <v>33.04889</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.7</v>
+        <v>12.96338</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.9</v>
+        <v>18.69728</v>
       </c>
       <c r="AI4" t="n">
-        <v>101.2</v>
+        <v>119.13371</v>
       </c>
       <c r="AJ4" t="n">
-        <v>48.4</v>
+        <v>48.1586</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.3</v>
+        <v>1.70789</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.2</v>
+        <v>412.16101</v>
       </c>
       <c r="C5" t="n">
-        <v>7.7</v>
+        <v>1.61511</v>
       </c>
       <c r="D5" t="n">
-        <v>92.8</v>
+        <v>98.44347</v>
       </c>
       <c r="E5" t="n">
-        <v>2418.4</v>
+        <v>3012.81536</v>
       </c>
       <c r="F5" t="n">
-        <v>24.7</v>
+        <v>16.3221</v>
       </c>
       <c r="G5" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>54.46085</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.16427</v>
+      </c>
       <c r="I5" t="n">
-        <v>591</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>965.66237</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.94648</v>
+      </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>-0.30314</v>
       </c>
       <c r="L5" t="n">
-        <v>1982.9</v>
+        <v>2446.76588</v>
       </c>
       <c r="M5" t="n">
-        <v>2.4</v>
+        <v>0.70575</v>
       </c>
       <c r="N5" t="n">
-        <v>672.9</v>
+        <v>580.00816</v>
       </c>
       <c r="O5" t="n">
-        <v>46.8</v>
+        <v>146.67244</v>
       </c>
       <c r="P5" t="n">
-        <v>8.1</v>
+        <v>3.9904</v>
       </c>
       <c r="Q5" t="n">
-        <v>194.9</v>
+        <v>215.8258</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>-2.64541</v>
       </c>
       <c r="S5" t="n">
-        <v>92.3</v>
+        <v>117.24836</v>
       </c>
       <c r="T5" t="n">
-        <v>2111.7</v>
+        <v>2546.1935</v>
       </c>
       <c r="U5" t="n">
-        <v>637.8</v>
+        <v>1112.33481</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>21.4</v>
+        <v>15.08525</v>
       </c>
       <c r="X5" t="n">
-        <v>126.8</v>
+        <v>139.44518</v>
       </c>
       <c r="Y5" t="n">
-        <v>240.7</v>
+        <v>350.22368</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.7</v>
+        <v>12.15895</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.90000000000001</v>
+        <v>181.58782</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.8</v>
+        <v>554.12233</v>
       </c>
       <c r="AC5" t="n">
-        <v>22</v>
+        <v>15.59249</v>
       </c>
       <c r="AD5" t="n">
-        <v>288.3</v>
+        <v>418.74158</v>
       </c>
       <c r="AE5" t="n">
-        <v>111.4</v>
+        <v>76.95892000000001</v>
       </c>
       <c r="AF5" t="n">
-        <v>27.2</v>
+        <v>42.82934</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>6.25739</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.9</v>
+        <v>5.99485</v>
       </c>
       <c r="AI5" t="n">
-        <v>119.9</v>
+        <v>131.83672</v>
       </c>
       <c r="AJ5" t="n">
-        <v>47.3</v>
+        <v>39.88952</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5</v>
+        <v>1.86438</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305.2</v>
+        <v>445.40251</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1</v>
+        <v>-13.0151</v>
       </c>
       <c r="D6" t="n">
-        <v>89.2</v>
+        <v>84.61414000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>2675.8</v>
+        <v>2985.4</v>
       </c>
       <c r="F6" t="n">
-        <v>64.8</v>
+        <v>16.07639</v>
       </c>
       <c r="G6" t="n">
-        <v>30.3</v>
+        <v>53.85018</v>
       </c>
       <c r="H6" t="n">
-        <v>1.7</v>
+        <v>9.90889</v>
       </c>
       <c r="I6" t="n">
-        <v>749.4</v>
+        <v>1067.46702</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>2.19148</v>
       </c>
       <c r="K6" t="n">
-        <v>1.5</v>
+        <v>-0.36483</v>
       </c>
       <c r="L6" t="n">
-        <v>2198.6</v>
+        <v>2428.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3</v>
+        <v>0.50774</v>
       </c>
       <c r="N6" t="n">
-        <v>690.6</v>
+        <v>504.14595</v>
       </c>
       <c r="O6" t="n">
-        <v>51.5</v>
+        <v>159.49976</v>
       </c>
       <c r="P6" t="n">
-        <v>6.6</v>
+        <v>2.89742</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.8</v>
+        <v>187.05626</v>
       </c>
       <c r="R6" t="n">
-        <v>4.1</v>
+        <v>-3.36273</v>
       </c>
       <c r="S6" t="n">
-        <v>105</v>
+        <v>108.91106</v>
       </c>
       <c r="T6" t="n">
-        <v>2340.2</v>
+        <v>2486.09029</v>
       </c>
       <c r="U6" t="n">
-        <v>801</v>
+        <v>1226.96678</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>30.6</v>
+        <v>34.1638</v>
       </c>
       <c r="X6" t="n">
-        <v>136</v>
+        <v>146.39206</v>
       </c>
       <c r="Y6" t="n">
-        <v>277.3</v>
+        <v>369.87883</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.3</v>
+        <v>6.81727</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.3</v>
+        <v>180.31422</v>
       </c>
       <c r="AB6" t="n">
-        <v>439.1</v>
+        <v>505.99007</v>
       </c>
       <c r="AC6" t="n">
-        <v>19.2</v>
+        <v>16.59572</v>
       </c>
       <c r="AD6" t="n">
-        <v>298.6</v>
+        <v>376.66119</v>
       </c>
       <c r="AE6" t="n">
-        <v>89.7</v>
+        <v>76.6305</v>
       </c>
       <c r="AF6" t="n">
-        <v>31.6</v>
+        <v>36.10266</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.4</v>
+        <v>4.55207</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.4</v>
+        <v>4.681</v>
       </c>
       <c r="AI6" t="n">
-        <v>127.3</v>
+        <v>130.95755</v>
       </c>
       <c r="AJ6" t="n">
-        <v>47.1</v>
+        <v>35.03808</v>
       </c>
       <c r="AK6" t="n">
-        <v>2</v>
+        <v>1.51174</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.92586</v>
+        <v>450.4554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.56567</v>
+        <v>-14.4954</v>
       </c>
       <c r="D7" t="n">
-        <v>90.75659</v>
+        <v>127.5811</v>
       </c>
       <c r="E7" t="n">
-        <v>2805.53717</v>
+        <v>3188.3109</v>
       </c>
       <c r="F7" t="n">
-        <v>65.48842</v>
+        <v>12.6514</v>
       </c>
       <c r="G7" t="n">
-        <v>37.40245</v>
+        <v>78.9102</v>
       </c>
       <c r="H7" t="n">
-        <v>2.80091</v>
+        <v>10.6863</v>
       </c>
       <c r="I7" t="n">
-        <v>789.4213</v>
+        <v>1071.446</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05503</v>
+        <v>5.0465</v>
       </c>
       <c r="K7" t="n">
-        <v>1.16282</v>
+        <v>-0.3076</v>
       </c>
       <c r="L7" t="n">
-        <v>2314.27172</v>
+        <v>2575.9785</v>
       </c>
       <c r="M7" t="n">
-        <v>1.73364</v>
+        <v>2.2619</v>
       </c>
       <c r="N7" t="n">
-        <v>745.63971</v>
+        <v>501.2552</v>
       </c>
       <c r="O7" t="n">
-        <v>64.23381000000001</v>
+        <v>189.1597</v>
       </c>
       <c r="P7" t="n">
-        <v>8.359030000000001</v>
+        <v>3.7206</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.28931</v>
+        <v>225.0625</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.349</v>
+        <v>-5.0318</v>
       </c>
       <c r="S7" t="n">
-        <v>104.51514</v>
+        <v>106.3229</v>
       </c>
       <c r="T7" t="n">
-        <v>2441.20886</v>
+        <v>2658.9459</v>
       </c>
       <c r="U7" t="n">
-        <v>853.65511</v>
+        <v>1260.6056</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>30.84267</v>
+        <v>36.1019</v>
       </c>
       <c r="X7" t="n">
-        <v>153.94732</v>
+        <v>120.1532</v>
       </c>
       <c r="Y7" t="n">
-        <v>292.97614</v>
+        <v>387.2699</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.972950000000001</v>
+        <v>5.7458</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.15817</v>
+        <v>220.2226</v>
       </c>
       <c r="AB7" t="n">
-        <v>450.53551</v>
+        <v>616.0244</v>
       </c>
       <c r="AC7" t="n">
-        <v>19.82957</v>
+        <v>16.2417</v>
       </c>
       <c r="AD7" t="n">
-        <v>306.82711</v>
+        <v>479.9719</v>
       </c>
       <c r="AE7" t="n">
-        <v>90.82993999999999</v>
+        <v>73.35939999999999</v>
       </c>
       <c r="AF7" t="n">
-        <v>33.04889</v>
+        <v>46.4519</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.96338</v>
+        <v>6.7708</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.69728</v>
+        <v>5.7246</v>
       </c>
       <c r="AI7" t="n">
-        <v>119.13371</v>
+        <v>144.6789</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48.1586</v>
+        <v>28.2691</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.70789</v>
+        <v>1.0959</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>412.16101</v>
+        <v>487.8</v>
       </c>
       <c r="C8" t="n">
-        <v>1.61511</v>
+        <v>12.2811</v>
       </c>
       <c r="D8" t="n">
-        <v>98.44347</v>
+        <v>117.0294</v>
       </c>
       <c r="E8" t="n">
-        <v>3012.81536</v>
+        <v>3357.7018</v>
       </c>
       <c r="F8" t="n">
-        <v>16.3221</v>
+        <v>10.9933</v>
       </c>
       <c r="G8" t="n">
-        <v>54.46085</v>
+        <v>77.71599999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.16427</v>
+        <v>11.9413</v>
       </c>
       <c r="I8" t="n">
-        <v>965.66237</v>
+        <v>1129.8277</v>
       </c>
       <c r="J8" t="n">
-        <v>1.94648</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-0.30314</v>
-      </c>
+        <v>5.2223</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2446.76588</v>
+        <v>2701.7107</v>
       </c>
       <c r="M8" t="n">
-        <v>0.70575</v>
+        <v>1.467</v>
       </c>
       <c r="N8" t="n">
-        <v>580.00816</v>
+        <v>485.0259</v>
       </c>
       <c r="O8" t="n">
-        <v>146.67244</v>
+        <v>265.183</v>
       </c>
       <c r="P8" t="n">
-        <v>3.9904</v>
+        <v>2.7638</v>
       </c>
       <c r="Q8" t="n">
-        <v>215.8258</v>
+        <v>242.7356</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.64541</v>
+        <v>-7.9922</v>
       </c>
       <c r="S8" t="n">
-        <v>117.24836</v>
+        <v>109.4759</v>
       </c>
       <c r="T8" t="n">
-        <v>2546.1935</v>
+        <v>2792.1856</v>
       </c>
       <c r="U8" t="n">
-        <v>1112.33481</v>
+        <v>1395.0108</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>15.08525</v>
+        <v>35.6305</v>
       </c>
       <c r="X8" t="n">
-        <v>139.44518</v>
+        <v>116.1947</v>
       </c>
       <c r="Y8" t="n">
-        <v>350.22368</v>
+        <v>413.2555</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.15895</v>
+        <v>4.3082</v>
       </c>
       <c r="AA8" t="n">
-        <v>181.58782</v>
+        <v>251.8999</v>
       </c>
       <c r="AB8" t="n">
-        <v>554.12233</v>
+        <v>624.313</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.59249</v>
+        <v>17.2821</v>
       </c>
       <c r="AD8" t="n">
-        <v>418.74158</v>
+        <v>507.4383</v>
       </c>
       <c r="AE8" t="n">
-        <v>76.95892000000001</v>
+        <v>62.293</v>
       </c>
       <c r="AF8" t="n">
-        <v>42.82934</v>
+        <v>37.3003</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.25739</v>
+        <v>4.3231</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.99485</v>
+        <v>3.6121</v>
       </c>
       <c r="AI8" t="n">
-        <v>131.83672</v>
+        <v>150.2832</v>
       </c>
       <c r="AJ8" t="n">
-        <v>39.88952</v>
+        <v>28.1497</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.86438</v>
+        <v>0.1074</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>445.40251</v>
+        <v>532.97</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.0151</v>
+        <v>11.493</v>
       </c>
       <c r="D9" t="n">
-        <v>84.61414000000001</v>
+        <v>96.185</v>
       </c>
       <c r="E9" t="n">
-        <v>2985.4</v>
+        <v>3368.9543</v>
       </c>
       <c r="F9" t="n">
-        <v>16.07639</v>
+        <v>12.089</v>
       </c>
       <c r="G9" t="n">
-        <v>53.85018</v>
+        <v>75.524</v>
       </c>
       <c r="H9" t="n">
-        <v>9.90889</v>
+        <v>10.979</v>
       </c>
       <c r="I9" t="n">
-        <v>1067.46702</v>
+        <v>1186.767</v>
       </c>
       <c r="J9" t="n">
-        <v>2.19148</v>
+        <v>4.125</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.36483</v>
+        <v>-0.057</v>
       </c>
       <c r="L9" t="n">
-        <v>2428.5</v>
+        <v>2701.356</v>
       </c>
       <c r="M9" t="n">
-        <v>0.50774</v>
+        <v>0.651</v>
       </c>
       <c r="N9" t="n">
-        <v>504.14595</v>
+        <v>474.176</v>
       </c>
       <c r="O9" t="n">
-        <v>159.49976</v>
+        <v>276.173</v>
       </c>
       <c r="P9" t="n">
-        <v>2.89742</v>
+        <v>3.097</v>
       </c>
       <c r="Q9" t="n">
-        <v>187.05626</v>
+        <v>225.921</v>
       </c>
       <c r="R9" t="n">
-        <v>-3.36273</v>
+        <v>3.006</v>
       </c>
       <c r="S9" t="n">
-        <v>108.91106</v>
+        <v>104.259</v>
       </c>
       <c r="T9" t="n">
-        <v>2486.09029</v>
+        <v>2760.46</v>
       </c>
       <c r="U9" t="n">
-        <v>1226.96678</v>
+        <v>1462.94</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>34.1638</v>
+        <v>47.045</v>
       </c>
       <c r="X9" t="n">
-        <v>146.39206</v>
+        <v>109.828</v>
       </c>
       <c r="Y9" t="n">
-        <v>369.87883</v>
+        <v>441.678</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.81727</v>
+        <v>11.217</v>
       </c>
       <c r="AA9" t="n">
-        <v>180.31422</v>
+        <v>269.462</v>
       </c>
       <c r="AB9" t="n">
-        <v>505.99007</v>
+        <v>534.322</v>
       </c>
       <c r="AC9" t="n">
-        <v>16.59572</v>
+        <v>13.011</v>
       </c>
       <c r="AD9" t="n">
-        <v>376.66119</v>
+        <v>438.291</v>
       </c>
       <c r="AE9" t="n">
-        <v>76.6305</v>
+        <v>49.947</v>
       </c>
       <c r="AF9" t="n">
-        <v>36.10266</v>
+        <v>33.074</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.55207</v>
+        <v>3.504</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.681</v>
+        <v>2.6</v>
       </c>
       <c r="AI9" t="n">
-        <v>130.95755</v>
+        <v>189.275</v>
       </c>
       <c r="AJ9" t="n">
-        <v>35.03808</v>
+        <v>22.451</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.51174</v>
+        <v>-0.186</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>450.4554</v>
+        <v>521.2</v>
       </c>
       <c r="C10" t="n">
-        <v>-14.4954</v>
+        <v>12.1</v>
       </c>
       <c r="D10" t="n">
-        <v>127.5811</v>
+        <v>121.1</v>
       </c>
       <c r="E10" t="n">
-        <v>3188.3109</v>
+        <v>3432.5</v>
       </c>
       <c r="F10" t="n">
-        <v>12.6514</v>
+        <v>0.6</v>
       </c>
       <c r="G10" t="n">
-        <v>78.9102</v>
+        <v>68.8</v>
       </c>
       <c r="H10" t="n">
-        <v>10.6863</v>
+        <v>11.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1071.446</v>
+        <v>1186.2</v>
       </c>
       <c r="J10" t="n">
-        <v>5.0465</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.3076</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2575.9785</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.2619</v>
-      </c>
+        <v>2738.7</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>501.2552</v>
+        <v>461.7</v>
       </c>
       <c r="O10" t="n">
-        <v>189.1597</v>
+        <v>279.7</v>
       </c>
       <c r="P10" t="n">
-        <v>3.7206</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>225.0625</v>
+        <v>250.9</v>
       </c>
       <c r="R10" t="n">
-        <v>-5.0318</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>106.3229</v>
+        <v>105.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2658.9459</v>
+        <v>2820.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1260.6056</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>1466</v>
+      </c>
+      <c r="V10" t="n">
+        <v>21.7</v>
+      </c>
       <c r="W10" t="n">
-        <v>36.1019</v>
+        <v>56.7</v>
       </c>
       <c r="X10" t="n">
-        <v>120.1532</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>387.2699</v>
+        <v>442.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.7458</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>220.2226</v>
+        <v>278.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>616.0244</v>
+        <v>587.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>16.2417</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>479.9719</v>
+        <v>507.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>73.35939999999999</v>
+        <v>43.9</v>
       </c>
       <c r="AF10" t="n">
-        <v>46.4519</v>
+        <v>23.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.7708</v>
+        <v>3.7</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.7246</v>
+        <v>1.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>144.6789</v>
+        <v>198.4</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28.2691</v>
+        <v>19.2</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.0959</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>-0.3</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>487.8</v>
+        <v>541.7992</v>
       </c>
       <c r="C11" t="n">
-        <v>12.2811</v>
+        <v>19.0376</v>
       </c>
       <c r="D11" t="n">
-        <v>117.0294</v>
+        <v>140.6869</v>
       </c>
       <c r="E11" t="n">
-        <v>3357.7018</v>
+        <v>3493.2371</v>
       </c>
       <c r="F11" t="n">
-        <v>10.9933</v>
+        <v>0.1395</v>
       </c>
       <c r="G11" t="n">
-        <v>77.71599999999999</v>
+        <v>100.1578</v>
       </c>
       <c r="H11" t="n">
-        <v>11.9413</v>
+        <v>2.2472</v>
       </c>
       <c r="I11" t="n">
-        <v>1129.8277</v>
+        <v>1170.286</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2223</v>
+        <v>-1.3682</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>2701.7107</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.467</v>
-      </c>
+        <v>2771.7386</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>485.0259</v>
+        <v>450.2138</v>
       </c>
       <c r="O11" t="n">
-        <v>265.183</v>
+        <v>371.5883</v>
       </c>
       <c r="P11" t="n">
-        <v>2.7638</v>
+        <v>2.7445</v>
       </c>
       <c r="Q11" t="n">
-        <v>242.7356</v>
+        <v>293.1732</v>
       </c>
       <c r="R11" t="n">
-        <v>-7.9922</v>
+        <v>18.9317</v>
       </c>
       <c r="S11" t="n">
-        <v>109.4759</v>
+        <v>112.2699</v>
       </c>
       <c r="T11" t="n">
-        <v>2792.1856</v>
+        <v>2820.2521</v>
       </c>
       <c r="U11" t="n">
-        <v>1395.0108</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>1541.874</v>
+      </c>
+      <c r="V11" t="n">
+        <v>28.7252</v>
+      </c>
       <c r="W11" t="n">
-        <v>35.6305</v>
+        <v>44.8616</v>
       </c>
       <c r="X11" t="n">
-        <v>116.1947</v>
+        <v>103.4336</v>
       </c>
       <c r="Y11" t="n">
-        <v>413.2555</v>
+        <v>428.3255</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.3082</v>
+        <v>3.5629</v>
       </c>
       <c r="AA11" t="n">
-        <v>251.8999</v>
+        <v>277.8355</v>
       </c>
       <c r="AB11" t="n">
-        <v>624.313</v>
+        <v>557.3301</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.2821</v>
+        <v>12.9346</v>
       </c>
       <c r="AD11" t="n">
-        <v>507.4383</v>
+        <v>458.3991</v>
       </c>
       <c r="AE11" t="n">
-        <v>62.293</v>
+        <v>43.6452</v>
       </c>
       <c r="AF11" t="n">
-        <v>37.3003</v>
+        <v>42.3513</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.3231</v>
+        <v>3.2208</v>
       </c>
       <c r="AH11" t="n">
-        <v>3.6121</v>
+        <v>3.0716</v>
       </c>
       <c r="AI11" t="n">
-        <v>150.2832</v>
+        <v>200.0961</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28.1497</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.1074</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>15.7932</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>2.3033</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>532.97</v>
+        <v>570.3747</v>
       </c>
       <c r="C12" t="n">
-        <v>11.493</v>
+        <v>26.3264</v>
       </c>
       <c r="D12" t="n">
-        <v>96.185</v>
+        <v>294.967</v>
       </c>
       <c r="E12" t="n">
-        <v>3368.9543</v>
+        <v>3600.0803</v>
       </c>
       <c r="F12" t="n">
-        <v>12.089</v>
+        <v>-0.1169</v>
       </c>
       <c r="G12" t="n">
-        <v>75.524</v>
+        <v>83.1777</v>
       </c>
       <c r="H12" t="n">
-        <v>10.979</v>
+        <v>1.4098</v>
       </c>
       <c r="I12" t="n">
-        <v>1186.767</v>
+        <v>1149.311</v>
       </c>
       <c r="J12" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-0.057</v>
-      </c>
+        <v>0.498</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>2701.356</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.651</v>
-      </c>
+        <v>2791.2695</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>474.176</v>
+        <v>480.7994</v>
       </c>
       <c r="O12" t="n">
-        <v>276.173</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.097</v>
-      </c>
+        <v>349.1532</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>225.921</v>
+        <v>434.1294</v>
       </c>
       <c r="R12" t="n">
-        <v>3.006</v>
+        <v>6.7769</v>
       </c>
       <c r="S12" t="n">
-        <v>104.259</v>
+        <v>104.6492</v>
       </c>
       <c r="T12" t="n">
-        <v>2760.46</v>
+        <v>2914.886</v>
       </c>
       <c r="U12" t="n">
-        <v>1462.94</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>1498.4639</v>
+      </c>
+      <c r="V12" t="n">
+        <v>26.2834</v>
+      </c>
       <c r="W12" t="n">
-        <v>47.045</v>
+        <v>34.2938</v>
       </c>
       <c r="X12" t="n">
-        <v>109.828</v>
+        <v>66.7906</v>
       </c>
       <c r="Y12" t="n">
-        <v>441.678</v>
+        <v>374.6815</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.217</v>
+        <v>0.8204</v>
       </c>
       <c r="AA12" t="n">
-        <v>269.462</v>
+        <v>272.2789</v>
       </c>
       <c r="AB12" t="n">
-        <v>534.322</v>
+        <v>597.3085</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.011</v>
+        <v>9.3568</v>
       </c>
       <c r="AD12" t="n">
-        <v>438.291</v>
+        <v>524.1629</v>
       </c>
       <c r="AE12" t="n">
-        <v>49.947</v>
+        <v>47.6124</v>
       </c>
       <c r="AF12" t="n">
-        <v>33.074</v>
+        <v>16.1773</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.504</v>
+        <v>3.3022</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.6</v>
+        <v>-16.8342</v>
       </c>
       <c r="AI12" t="n">
-        <v>189.275</v>
+        <v>215.0984</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22.451</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>-0.186</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>13.2481</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>5.359</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>521.2</v>
+        <v>538.6473</v>
       </c>
       <c r="C13" t="n">
-        <v>12.1</v>
+        <v>34.2557</v>
       </c>
       <c r="D13" t="n">
-        <v>121.1</v>
+        <v>276.9333</v>
       </c>
       <c r="E13" t="n">
-        <v>3432.5</v>
+        <v>3306.9218</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6</v>
+        <v>-0.0698</v>
       </c>
       <c r="G13" t="n">
-        <v>68.8</v>
+        <v>51.613</v>
       </c>
       <c r="H13" t="n">
-        <v>11.2</v>
+        <v>8.026400000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>1186.2</v>
+        <v>1023.3113</v>
       </c>
       <c r="J13" t="n">
-        <v>2.8</v>
+        <v>0.9481000000000001</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>2738.7</v>
+        <v>2533.3436</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>461.7</v>
+        <v>426.5938</v>
       </c>
       <c r="O13" t="n">
-        <v>279.7</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.4</v>
-      </c>
+        <v>381.1896</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>250.9</v>
+        <v>446.256</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>2.7367</v>
       </c>
       <c r="S13" t="n">
-        <v>105.2</v>
+        <v>124.3039</v>
       </c>
       <c r="T13" t="n">
-        <v>2820.5</v>
+        <v>2679.3444</v>
       </c>
       <c r="U13" t="n">
-        <v>1466</v>
+        <v>1404.5009</v>
       </c>
       <c r="V13" t="n">
-        <v>21.7</v>
+        <v>32.0908</v>
       </c>
       <c r="W13" t="n">
-        <v>56.7</v>
+        <v>28.2628</v>
       </c>
       <c r="X13" t="n">
-        <v>98.40000000000001</v>
+        <v>68.9123</v>
       </c>
       <c r="Y13" t="n">
-        <v>442.9</v>
+        <v>327.3222</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.5</v>
+        <v>18.3793</v>
       </c>
       <c r="AA13" t="n">
-        <v>278.5</v>
+        <v>210.8196</v>
       </c>
       <c r="AB13" t="n">
-        <v>587.4</v>
+        <v>540.0093000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>11.6522</v>
       </c>
       <c r="AD13" t="n">
-        <v>507.2</v>
+        <v>466.2309</v>
       </c>
       <c r="AE13" t="n">
-        <v>43.9</v>
+        <v>47.5582</v>
       </c>
       <c r="AF13" t="n">
-        <v>23.8</v>
+        <v>14.5679</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.7</v>
+        <v>3.0889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.6</v>
+        <v>2.7859</v>
       </c>
       <c r="AI13" t="n">
-        <v>198.4</v>
+        <v>146.2402</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>-0.3</v>
-      </c>
+        <v>10.1944</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>541.7992</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19.0376</v>
-      </c>
-      <c r="D14" t="n">
-        <v>140.6869</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3493.2371</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1395</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100.1578</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.2472</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1170.286</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-1.3682</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>2771.7386</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>450.2138</v>
-      </c>
-      <c r="O14" t="n">
-        <v>371.5883</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.7445</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>293.1732</v>
-      </c>
-      <c r="R14" t="n">
-        <v>18.9317</v>
-      </c>
-      <c r="S14" t="n">
-        <v>112.2699</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2820.2521</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1541.874</v>
-      </c>
-      <c r="V14" t="n">
-        <v>28.7252</v>
-      </c>
-      <c r="W14" t="n">
-        <v>44.8616</v>
-      </c>
-      <c r="X14" t="n">
-        <v>103.4336</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>428.3255</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3.5629</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>277.8355</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>557.3301</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12.9346</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>458.3991</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>43.6452</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>42.3513</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>3.2208</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>3.0716</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>200.0961</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15.7932</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>2.3033</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>570.3747</v>
-      </c>
-      <c r="C15" t="n">
-        <v>26.3264</v>
-      </c>
-      <c r="D15" t="n">
-        <v>294.967</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3600.0803</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.1169</v>
-      </c>
-      <c r="G15" t="n">
-        <v>83.1777</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.4098</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1149.311</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>2791.2695</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>480.7994</v>
-      </c>
-      <c r="O15" t="n">
-        <v>349.1532</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>434.1294</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6.7769</v>
-      </c>
-      <c r="S15" t="n">
-        <v>104.6492</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2914.886</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1498.4639</v>
-      </c>
-      <c r="V15" t="n">
-        <v>26.2834</v>
-      </c>
-      <c r="W15" t="n">
-        <v>34.2938</v>
-      </c>
-      <c r="X15" t="n">
-        <v>66.7906</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>374.6815</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.8204</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>272.2789</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>597.3085</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.3568</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>524.1629</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>47.6124</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>16.1773</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3.3022</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>-16.8342</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>215.0984</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13.2481</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>5.359</v>
+        <v>5.2263</v>
       </c>
     </row>
   </sheetData>
